--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Sacramento_Kings__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Sacramento_Kings__.xlsx
@@ -588,79 +588,79 @@
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>836</v>
+        <v>870</v>
       </c>
       <c r="G2" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H2" t="n">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.429</v>
+        <v>0.438</v>
       </c>
       <c r="J2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" t="n">
+        <v>105</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="M2" t="n">
+        <v>163</v>
+      </c>
+      <c r="N2" t="n">
+        <v>333</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="Q2" t="n">
         <v>103</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="M2" t="n">
-        <v>153</v>
-      </c>
-      <c r="N2" t="n">
-        <v>317</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>96</v>
-      </c>
       <c r="R2" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="S2" t="n">
-        <v>0.733</v>
+        <v>0.741</v>
       </c>
       <c r="T2" t="n">
         <v>13</v>
       </c>
       <c r="U2" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V2" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="W2" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="n">
         <v>71</v>
       </c>
-      <c r="AA2" t="n">
-        <v>67</v>
-      </c>
       <c r="AB2" t="n">
-        <v>483</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>21</v>
       </c>
       <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>773</v>
+      </c>
+      <c r="G3" t="n">
+        <v>107</v>
+      </c>
+      <c r="H3" t="n">
+        <v>243</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41</v>
+      </c>
+      <c r="K3" t="n">
+        <v>102</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="M3" t="n">
+        <v>66</v>
+      </c>
+      <c r="N3" t="n">
+        <v>141</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="Q3" t="n">
         <v>22</v>
       </c>
-      <c r="E3" t="n">
-        <v>22</v>
-      </c>
-      <c r="F3" t="n">
-        <v>735</v>
-      </c>
-      <c r="G3" t="n">
-        <v>101</v>
-      </c>
-      <c r="H3" t="n">
-        <v>234</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36</v>
-      </c>
-      <c r="K3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M3" t="n">
-        <v>65</v>
-      </c>
-      <c r="N3" t="n">
-        <v>138</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>21</v>
-      </c>
       <c r="R3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S3" t="n">
-        <v>0.75</v>
+        <v>0.759</v>
       </c>
       <c r="T3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U3" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V3" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W3" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="X3" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
@@ -764,43 +764,43 @@
         <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="G4" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" t="n">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="I4" t="n">
-        <v>0.388</v>
+        <v>0.379</v>
       </c>
       <c r="J4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="n">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L4" t="n">
-        <v>0.364</v>
+        <v>0.353</v>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O4" t="n">
-        <v>0.455</v>
+        <v>0.451</v>
       </c>
       <c r="P4" t="n">
-        <v>0.521</v>
+        <v>0.509</v>
       </c>
       <c r="Q4" t="n">
         <v>41</v>
@@ -815,13 +815,13 @@
         <v>18</v>
       </c>
       <c r="U4" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W4" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
@@ -833,10 +833,10 @@
         <v>39</v>
       </c>
       <c r="AA4" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB4" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
@@ -852,67 +852,67 @@
         <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="G5" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H5" t="n">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I5" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="J5" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L5" t="n">
-        <v>0.398</v>
+        <v>0.402</v>
       </c>
       <c r="M5" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="O5" t="n">
-        <v>0.533</v>
+        <v>0.528</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R5" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="S5" t="n">
-        <v>0.846</v>
+        <v>0.844</v>
       </c>
       <c r="T5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U5" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="V5" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="W5" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>39</v>
       </c>
       <c r="AA5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6">
@@ -940,64 +940,64 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="G6" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H6" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="I6" t="n">
-        <v>0.373</v>
+        <v>0.387</v>
       </c>
       <c r="J6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L6" t="n">
-        <v>0.281</v>
+        <v>0.283</v>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N6" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="O6" t="n">
-        <v>0.438</v>
+        <v>0.458</v>
       </c>
       <c r="P6" t="n">
-        <v>0.431</v>
+        <v>0.444</v>
       </c>
       <c r="Q6" t="n">
+        <v>20</v>
+      </c>
+      <c r="R6" t="n">
+        <v>30</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="T6" t="n">
         <v>17</v>
       </c>
-      <c r="R6" t="n">
-        <v>26</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="T6" t="n">
-        <v>16</v>
-      </c>
       <c r="U6" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V6" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="W6" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1009,10 +1009,10 @@
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB6" t="n">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -1028,19 +1028,19 @@
         <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="G7" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H7" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I7" t="n">
         <v>0.707</v>
@@ -1055,16 +1055,16 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N7" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O7" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.712</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.713</v>
       </c>
       <c r="Q7" t="n">
         <v>46</v>
@@ -1076,16 +1076,16 @@
         <v>0.8070000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V7" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="W7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X7" t="n">
         <v>6</v>
@@ -1097,10 +1097,10 @@
         <v>31</v>
       </c>
       <c r="AA7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB7" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8">
@@ -1285,86 +1285,86 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alex Len</t>
+          <t>Terence Davis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>289</v>
+      </c>
+      <c r="G10" t="n">
+        <v>56</v>
+      </c>
+      <c r="H10" t="n">
+        <v>138</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="M10" t="n">
+        <v>31</v>
+      </c>
+      <c r="N10" t="n">
+        <v>56</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>13</v>
+      </c>
+      <c r="R10" t="n">
+        <v>17</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="T10" t="n">
         <v>3</v>
       </c>
-      <c r="F10" t="n">
-        <v>261</v>
-      </c>
-      <c r="G10" t="n">
-        <v>36</v>
-      </c>
-      <c r="H10" t="n">
-        <v>71</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="U10" t="n">
+        <v>41</v>
+      </c>
+      <c r="V10" t="n">
+        <v>44</v>
+      </c>
+      <c r="W10" t="n">
+        <v>15</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
-        <v>14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="M10" t="n">
-        <v>30</v>
-      </c>
-      <c r="N10" t="n">
-        <v>57</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>18</v>
-      </c>
-      <c r="R10" t="n">
-        <v>27</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="T10" t="n">
-        <v>15</v>
-      </c>
-      <c r="U10" t="n">
-        <v>47</v>
-      </c>
-      <c r="V10" t="n">
-        <v>62</v>
-      </c>
-      <c r="W10" t="n">
-        <v>16</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1373,86 +1373,86 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Terence Davis</t>
+          <t>Alex Len</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
+        <v>17</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>278</v>
+      </c>
+      <c r="G11" t="n">
+        <v>39</v>
+      </c>
+      <c r="H11" t="n">
+        <v>74</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="M11" t="n">
+        <v>33</v>
+      </c>
+      <c r="N11" t="n">
+        <v>60</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>18</v>
+      </c>
+      <c r="R11" t="n">
+        <v>27</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="T11" t="n">
+        <v>15</v>
+      </c>
+      <c r="U11" t="n">
+        <v>51</v>
+      </c>
+      <c r="V11" t="n">
+        <v>66</v>
+      </c>
+      <c r="W11" t="n">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>259</v>
-      </c>
-      <c r="G11" t="n">
-        <v>50</v>
-      </c>
-      <c r="H11" t="n">
-        <v>127</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="J11" t="n">
-        <v>23</v>
-      </c>
-      <c r="K11" t="n">
-        <v>77</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="M11" t="n">
-        <v>27</v>
-      </c>
-      <c r="N11" t="n">
-        <v>50</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>11</v>
-      </c>
-      <c r="R11" t="n">
-        <v>15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.733</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>36</v>
-      </c>
-      <c r="V11" t="n">
-        <v>39</v>
-      </c>
-      <c r="W11" t="n">
-        <v>12</v>
-      </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="AB11" t="n">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -1468,22 +1468,22 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G12" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H12" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I12" t="n">
-        <v>0.522</v>
+        <v>0.525</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1493,52 +1493,52 @@
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N12" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O12" t="n">
-        <v>0.522</v>
+        <v>0.525</v>
       </c>
       <c r="P12" t="n">
-        <v>0.522</v>
+        <v>0.525</v>
       </c>
       <c r="Q12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R12" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="T12" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="U12" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V12" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -1554,67 +1554,67 @@
         <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I13" t="n">
         <v>0.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>0.267</v>
+        <v>0.316</v>
       </c>
       <c r="M13" t="n">
+        <v>20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>33</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13</v>
+      </c>
+      <c r="R13" t="n">
         <v>18</v>
       </c>
-      <c r="N13" t="n">
-        <v>29</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>11</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="T13" t="n">
         <v>16</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="T13" t="n">
-        <v>14</v>
-      </c>
       <c r="U13" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="V13" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="W13" t="n">
         <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
         <v>1</v>
@@ -1623,10 +1623,10 @@
         <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1976,77 +1976,77 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>5835</v>
+        <v>6075</v>
       </c>
       <c r="G18" t="n">
-        <v>969</v>
+        <v>1022</v>
       </c>
       <c r="H18" t="n">
-        <v>2162</v>
+        <v>2259</v>
       </c>
       <c r="I18" t="n">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
       <c r="J18" t="n">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="K18" t="n">
-        <v>855</v>
+        <v>889</v>
       </c>
       <c r="L18" t="n">
-        <v>0.326</v>
+        <v>0.331</v>
       </c>
       <c r="M18" t="n">
-        <v>690</v>
+        <v>728</v>
       </c>
       <c r="N18" t="n">
-        <v>1307</v>
+        <v>1370</v>
       </c>
       <c r="O18" t="n">
-        <v>0.528</v>
+        <v>0.531</v>
       </c>
       <c r="P18" t="n">
-        <v>0.513</v>
+        <v>0.517</v>
       </c>
       <c r="Q18" t="n">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="R18" t="n">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="S18" t="n">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="T18" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="U18" t="n">
-        <v>829</v>
+        <v>860</v>
       </c>
       <c r="V18" t="n">
-        <v>1081</v>
+        <v>1124</v>
       </c>
       <c r="W18" t="n">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="X18" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Z18" t="n">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AA18" t="n">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="AB18" t="n">
-        <v>2635</v>
+        <v>2777</v>
       </c>
     </row>
   </sheetData>
